--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Col18a1-Itga5.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Col18a1-Itga5.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>15.79399266666667</v>
+        <v>0.5789666666666667</v>
       </c>
       <c r="H2">
-        <v>47.381978</v>
+        <v>1.7369</v>
       </c>
       <c r="I2">
-        <v>0.2968109173698557</v>
+        <v>0.01523705650035473</v>
       </c>
       <c r="J2">
-        <v>0.2968109173698557</v>
+        <v>0.01523705650035472</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>34.07074633333333</v>
+        <v>11.146846</v>
       </c>
       <c r="N2">
-        <v>102.212239</v>
+        <v>33.440538</v>
       </c>
       <c r="O2">
-        <v>0.5171464495142372</v>
+        <v>0.2594806085672136</v>
       </c>
       <c r="P2">
-        <v>0.5171464495142373</v>
+        <v>0.2594806085672136</v>
       </c>
       <c r="Q2">
-        <v>538.1131177365268</v>
+        <v>6.453652272466669</v>
       </c>
       <c r="R2">
-        <v>4843.018059628742</v>
+        <v>58.08287045220001</v>
       </c>
       <c r="S2">
-        <v>0.1534947120948845</v>
+        <v>0.003953720693485062</v>
       </c>
       <c r="T2">
-        <v>0.1534947120948845</v>
+        <v>0.003953720693485061</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>15.79399266666667</v>
+        <v>0.5789666666666667</v>
       </c>
       <c r="H3">
-        <v>47.381978</v>
+        <v>1.7369</v>
       </c>
       <c r="I3">
-        <v>0.2968109173698557</v>
+        <v>0.01523705650035473</v>
       </c>
       <c r="J3">
-        <v>0.2968109173698557</v>
+        <v>0.01523705650035472</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>83.05649099999999</v>
       </c>
       <c r="O3">
-        <v>0.420227262899125</v>
+        <v>0.6444737471070977</v>
       </c>
       <c r="P3">
-        <v>0.4202272628991251</v>
+        <v>0.6444737471070977</v>
       </c>
       <c r="Q3">
-        <v>437.264536591022</v>
+        <v>16.0289799131</v>
       </c>
       <c r="R3">
-        <v>3935.380829319198</v>
+        <v>144.2608192179</v>
       </c>
       <c r="S3">
-        <v>0.1247280394049128</v>
+        <v>0.009819882897666171</v>
       </c>
       <c r="T3">
-        <v>0.1247280394049128</v>
+        <v>0.009819882897666169</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>15.79399266666667</v>
+        <v>0.5789666666666667</v>
       </c>
       <c r="H4">
-        <v>47.381978</v>
+        <v>1.7369</v>
       </c>
       <c r="I4">
-        <v>0.2968109173698557</v>
+        <v>0.01523705650035473</v>
       </c>
       <c r="J4">
-        <v>0.2968109173698557</v>
+        <v>0.01523705650035472</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>12.377873</v>
       </c>
       <c r="O4">
-        <v>0.06262628758663767</v>
+        <v>0.09604564432568881</v>
       </c>
       <c r="P4">
-        <v>0.06262628758663767</v>
+        <v>0.09604564432568881</v>
       </c>
       <c r="Q4">
-        <v>65.16534513031046</v>
+        <v>2.388791957077778</v>
       </c>
       <c r="R4">
-        <v>586.4881061727941</v>
+        <v>21.4991276137</v>
       </c>
       <c r="S4">
-        <v>0.01858816587005833</v>
+        <v>0.001463452909203495</v>
       </c>
       <c r="T4">
-        <v>0.01858816587005833</v>
+        <v>0.001463452909203494</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>74.60864599999999</v>
       </c>
       <c r="I5">
-        <v>0.4673646309781075</v>
+        <v>0.6545086962501954</v>
       </c>
       <c r="J5">
-        <v>0.4673646309781075</v>
+        <v>0.6545086962501954</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>34.07074633333333</v>
+        <v>11.146846</v>
       </c>
       <c r="N5">
-        <v>102.212239</v>
+        <v>33.440538</v>
       </c>
       <c r="O5">
-        <v>0.5171464495142372</v>
+        <v>0.2594806085672136</v>
       </c>
       <c r="P5">
-        <v>0.5171464495142373</v>
+        <v>0.2594806085672136</v>
       </c>
       <c r="Q5">
-        <v>847.3240840464879</v>
+        <v>277.2170290768387</v>
       </c>
       <c r="R5">
-        <v>7625.916756418392</v>
+        <v>2494.953261691548</v>
       </c>
       <c r="S5">
-        <v>0.24169595953886</v>
+        <v>0.1698323148155342</v>
       </c>
       <c r="T5">
-        <v>0.24169595953886</v>
+        <v>0.1698323148155342</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>74.60864599999999</v>
       </c>
       <c r="I6">
-        <v>0.4673646309781075</v>
+        <v>0.6545086962501954</v>
       </c>
       <c r="J6">
-        <v>0.4673646309781075</v>
+        <v>0.6545086962501954</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>83.05649099999999</v>
       </c>
       <c r="O6">
-        <v>0.420227262899125</v>
+        <v>0.6444737471070977</v>
       </c>
       <c r="P6">
-        <v>0.4202272628991251</v>
+        <v>0.6444737471070977</v>
       </c>
       <c r="Q6">
         <v>688.5258150023539</v>
@@ -818,10 +818,10 @@
         <v>6196.732335021185</v>
       </c>
       <c r="S6">
-        <v>0.1963993596517898</v>
+        <v>0.4218136719865446</v>
       </c>
       <c r="T6">
-        <v>0.1963993596517898</v>
+        <v>0.4218136719865446</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>74.60864599999999</v>
       </c>
       <c r="I7">
-        <v>0.4673646309781075</v>
+        <v>0.6545086962501954</v>
       </c>
       <c r="J7">
-        <v>0.4673646309781075</v>
+        <v>0.6545086962501954</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>12.377873</v>
       </c>
       <c r="O7">
-        <v>0.06262628758663767</v>
+        <v>0.09604564432568881</v>
       </c>
       <c r="P7">
-        <v>0.06262628758663767</v>
+        <v>0.09604564432568881</v>
       </c>
       <c r="Q7">
         <v>102.6107049877731</v>
@@ -880,10 +880,10 @@
         <v>923.496344889958</v>
       </c>
       <c r="S7">
-        <v>0.02926931178745775</v>
+        <v>0.06286270944811656</v>
       </c>
       <c r="T7">
-        <v>0.02926931178745775</v>
+        <v>0.06286270944811656</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>37.646287</v>
       </c>
       <c r="I8">
-        <v>0.2358244516520368</v>
+        <v>0.33025424724945</v>
       </c>
       <c r="J8">
-        <v>0.2358244516520368</v>
+        <v>0.3302542472494499</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>34.07074633333333</v>
+        <v>11.146846</v>
       </c>
       <c r="N8">
-        <v>102.212239</v>
+        <v>33.440538</v>
       </c>
       <c r="O8">
-        <v>0.5171464495142372</v>
+        <v>0.2594806085672136</v>
       </c>
       <c r="P8">
-        <v>0.5171464495142373</v>
+        <v>0.2594806085672136</v>
       </c>
       <c r="Q8">
-        <v>427.5456982562881</v>
+        <v>139.8791212202674</v>
       </c>
       <c r="R8">
-        <v>3847.911284306592</v>
+        <v>1258.912090982406</v>
       </c>
       <c r="S8">
-        <v>0.1219557778804927</v>
+        <v>0.08569457305819429</v>
       </c>
       <c r="T8">
-        <v>0.1219557778804927</v>
+        <v>0.08569457305819428</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>37.646287</v>
       </c>
       <c r="I9">
-        <v>0.2358244516520368</v>
+        <v>0.33025424724945</v>
       </c>
       <c r="J9">
-        <v>0.2358244516520368</v>
+        <v>0.3302542472494499</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>83.05649099999999</v>
       </c>
       <c r="O9">
-        <v>0.420227262899125</v>
+        <v>0.6444737471070977</v>
       </c>
       <c r="P9">
-        <v>0.4202272628991251</v>
+        <v>0.6444737471070977</v>
       </c>
       <c r="Q9">
         <v>347.418721933213</v>
@@ -1004,10 +1004,10 @@
         <v>3126.768497398917</v>
       </c>
       <c r="S9">
-        <v>0.09909986384242249</v>
+        <v>0.2128401922228869</v>
       </c>
       <c r="T9">
-        <v>0.09909986384242249</v>
+        <v>0.2128401922228869</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>37.646287</v>
       </c>
       <c r="I10">
-        <v>0.2358244516520368</v>
+        <v>0.33025424724945</v>
       </c>
       <c r="J10">
-        <v>0.2358244516520368</v>
+        <v>0.3302542472494499</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>12.377873</v>
       </c>
       <c r="O10">
-        <v>0.06262628758663767</v>
+        <v>0.09604564432568881</v>
       </c>
       <c r="P10">
-        <v>0.06262628758663767</v>
+        <v>0.09604564432568881</v>
       </c>
       <c r="Q10">
         <v>51.77566215639457</v>
@@ -1066,10 +1066,10 @@
         <v>465.980959407551</v>
       </c>
       <c r="S10">
-        <v>0.01476880992912159</v>
+        <v>0.03171948196836876</v>
       </c>
       <c r="T10">
-        <v>0.01476880992912159</v>
+        <v>0.03171948196836875</v>
       </c>
     </row>
   </sheetData>
